--- a/ObedienceMobile/ObedienceMobile/Res/Template2.xlsx
+++ b/ObedienceMobile/ObedienceMobile/Res/Template2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Obedience\ObedienceX\ObedienceMobile\ObedienceMobile\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4455F2-808F-4F95-AA57-9872531BEA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA08C3-8610-4E5C-BF84-E5D2D43334C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="557" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ОБ-0 Сводная" sheetId="1" r:id="rId1"/>
@@ -287,16 +287,19 @@
     <t>Судьи</t>
   </si>
   <si>
-    <t>Судья1</t>
-  </si>
-  <si>
-    <t>Судья2</t>
+    <t>Судья ФИО</t>
+  </si>
+  <si>
+    <t>Судья2 ФИО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -667,47 +670,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -719,15 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -764,71 +726,83 @@
     <xf numFmtId="4" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,24 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,11 +1315,11 @@
   </sheetPr>
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1373,8 +1329,8 @@
     <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="42" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="36" customWidth="1"/>
     <col min="10" max="12" width="10.6640625" style="1" customWidth="1"/>
     <col min="13" max="23" width="12.44140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="1" customWidth="1"/>
@@ -1386,924 +1342,924 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="M1" s="28">
+      <c r="M1" s="23">
         <v>1</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="23">
         <v>2</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="23">
         <v>3</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="23">
         <v>4</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="23">
         <v>5</v>
       </c>
-      <c r="R1" s="28">
+      <c r="R1" s="23">
         <v>6</v>
       </c>
-      <c r="S1" s="28">
+      <c r="S1" s="23">
         <v>7</v>
       </c>
-      <c r="T1" s="28">
+      <c r="T1" s="23">
         <v>8</v>
       </c>
-      <c r="U1" s="28">
+      <c r="U1" s="23">
         <v>9</v>
       </c>
-      <c r="V1" s="28">
+      <c r="V1" s="23">
         <v>10</v>
       </c>
-      <c r="W1" s="28">
+      <c r="W1" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="23">
         <v>2</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="23">
         <v>2</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="23">
         <v>2</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="23">
         <v>2</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="23">
         <v>2</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="23">
         <v>2</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="23">
         <v>2</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="23">
         <v>2</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="23">
         <v>2</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="23">
         <v>2</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="23">
         <v>2</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="1:27" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47">
         <v>1</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="50">
         <v>0</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="51">
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="44">
         <f>IF(X6="",SUM(M6:W6)-X4,0)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="2" t="str">
+      <c r="Z4" s="45" t="str">
         <f>IF(Y4&gt;=256,"Отлично",IF(AND(Y4&gt;=224,Y4&lt;256),"Очень хорошо",IF(AND(Y4&gt;=192,Y4&lt;224),"Хорошо",IF(AND(Y4&lt;192),"---"))))</f>
         <v>---</v>
       </c>
-      <c r="AA4" s="50">
+      <c r="AA4" s="46">
         <f>RANK(Y4,Y$4:Y$221)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="4" t="s">
+    <row r="5" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="50"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="46"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="29">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="24">
         <f>IFERROR(AVERAGE(M4:M5),0)*M$3</f>
         <v>0</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="24">
         <f>IFERROR(AVERAGE(N4:N5),0)*N$3</f>
         <v>0</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="24">
         <f>IFERROR(AVERAGE(O4:O5),0)*O$3</f>
         <v>0</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="24">
         <f t="shared" ref="P6:W6" si="0">IFERROR(AVERAGE(P4:P5),0)*P$3</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="10"/>
-    </row>
-    <row r="7" spans="1:27" s="40" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39"/>
-    </row>
-    <row r="8" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="39"/>
-    </row>
-    <row r="9" spans="1:27" s="40" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="39"/>
-    </row>
-    <row r="10" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="39"/>
-    </row>
-    <row r="11" spans="1:27" s="40" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="39"/>
-    </row>
-    <row r="12" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="39"/>
-    </row>
-    <row r="13" spans="1:27" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39"/>
-    </row>
-    <row r="14" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="38"/>
-    </row>
-    <row r="15" spans="1:27" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="39"/>
-    </row>
-    <row r="16" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="38"/>
-    </row>
-    <row r="17" spans="1:27" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="39"/>
-    </row>
-    <row r="18" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="38"/>
-    </row>
-    <row r="19" spans="1:27" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="39"/>
-    </row>
-    <row r="20" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="38"/>
-    </row>
-    <row r="21" spans="1:27" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="39"/>
-    </row>
-    <row r="22" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="38"/>
-    </row>
-    <row r="23" spans="1:27" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="39"/>
-    </row>
-    <row r="24" spans="1:27" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="38"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="33"/>
+    </row>
+    <row r="7" spans="1:27" s="34" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="33"/>
+    </row>
+    <row r="9" spans="1:27" s="34" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="33"/>
+    </row>
+    <row r="10" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="33"/>
+    </row>
+    <row r="11" spans="1:27" s="34" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="33"/>
+    </row>
+    <row r="12" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="33"/>
+    </row>
+    <row r="13" spans="1:27" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="33"/>
+    </row>
+    <row r="14" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="32"/>
+    </row>
+    <row r="15" spans="1:27" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="33"/>
+    </row>
+    <row r="16" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="32"/>
+    </row>
+    <row r="17" spans="1:27" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="33"/>
+    </row>
+    <row r="18" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="32"/>
+    </row>
+    <row r="19" spans="1:27" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="33"/>
+    </row>
+    <row r="20" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="32"/>
+    </row>
+    <row r="21" spans="1:27" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="33"/>
+    </row>
+    <row r="22" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="32"/>
+    </row>
+    <row r="23" spans="1:27" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="33"/>
+    </row>
+    <row r="24" spans="1:27" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="39"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="33"/>
     </row>
     <row r="26" spans="1:27" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="40"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="34"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA13" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -2317,12 +2273,22 @@
     <filterColumn colId="20" showButton="0"/>
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
-  <mergeCells count="5">
+  <mergeCells count="15">
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2337,791 +2303,791 @@
   </sheetPr>
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="12" customWidth="1"/>
-    <col min="4" max="12" width="10.6640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="12" customWidth="1"/>
-    <col min="14" max="28" width="0" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="12" hidden="1"/>
+    <col min="1" max="1" width="13.44140625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="7" customWidth="1"/>
+    <col min="4" max="12" width="10.6640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="7" customWidth="1"/>
+    <col min="14" max="28" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="7" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:13" s="16" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-    </row>
-    <row r="3" spans="1:13" s="21" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+    </row>
+    <row r="3" spans="1:13" s="16" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-    </row>
-    <row r="4" spans="1:13" s="21" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-    </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" s="21" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="80" t="s">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="80" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+    </row>
+    <row r="11" spans="1:13" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-    </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="80" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="53" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="47">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="40">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="53" t="str">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="52" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,4)</f>
         <v>кличка</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="52" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,3)</f>
         <v>порода</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="75" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="53" t="str">
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="52" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,8)</f>
         <v>000</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="71" t="str">
+      <c r="B18" s="70" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,5)</f>
         <v>сука</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="72">
+      <c r="E18" s="56"/>
+      <c r="F18" s="71">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,6)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73" t="s">
+      <c r="G18" s="71"/>
+      <c r="H18" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74" t="str">
+      <c r="I18" s="72"/>
+      <c r="J18" s="73" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,9)</f>
         <v>000</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
     </row>
     <row r="19" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="71" t="str">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="70" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,7)</f>
         <v>000</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="66" t="str">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="65" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,11)</f>
         <v>ФИО</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
     </row>
     <row r="21" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="68" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="53" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="69">
-        <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,24)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="66">
+      <c r="B25" s="68">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,25)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="65" t="str">
+        <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,26)</f>
+        <v>---</v>
+      </c>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
     </row>
     <row r="26" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="63" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
     </row>
     <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="57" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
     </row>
     <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
     </row>
     <row r="35" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="57" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
+      <c r="A36" s="9"/>
     </row>
     <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="60" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="61">
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60">
         <v>44814</v>
       </c>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
     </row>
     <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="18"/>
     </row>
     <row r="39" spans="1:26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="53" t="str">
+      <c r="B42" s="52" t="str">
         <f>B17</f>
         <v>порода</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="53" t="str">
+      <c r="B43" s="52" t="str">
         <f>E16</f>
         <v>кличка</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="24" t="str">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="19" t="str">
         <f>B18</f>
         <v>сука</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="str">
+      <c r="B44" s="53"/>
+      <c r="C44" s="54" t="str">
         <f>D19</f>
         <v>000</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="54" t="s">
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="54"/>
-      <c r="H44" s="56" t="str">
+      <c r="G44" s="53"/>
+      <c r="H44" s="55" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$AA$121,10)</f>
         <v>ФИО</v>
       </c>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
     </row>
     <row r="45" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
+      <c r="A45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="61">
